--- a/CasosDePrueba/MatrizDePrueba.xlsx
+++ b/CasosDePrueba/MatrizDePrueba.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/CasosDePrueba/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C63792B-F025-4850-AE32-8618C0AF6E43}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MatrizDePrueba" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +24,135 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Tester: Fernandez Victoria</t>
+  </si>
+  <si>
+    <t>Nombre del proyecto: TP Final</t>
+  </si>
+  <si>
+    <t>Ambiente: Moto E40 (Android)</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Flujo</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>Precondiciones</t>
+  </si>
+  <si>
+    <t>Pasos</t>
+  </si>
+  <si>
+    <t>Resultado esperado</t>
+  </si>
+  <si>
+    <t>Resultado obtenido</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Severidad</t>
+  </si>
+  <si>
+    <t>Evidencia</t>
+  </si>
+  <si>
+    <t>Clasificacion</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>TC - 1</t>
+  </si>
+  <si>
+    <t>TC - 2</t>
+  </si>
+  <si>
+    <t>TC - 3</t>
+  </si>
+  <si>
+    <t>TC - 4</t>
+  </si>
+  <si>
+    <t>TC - 5</t>
+  </si>
+  <si>
+    <t>TC - 6</t>
+  </si>
+  <si>
+    <t>TC - 7</t>
+  </si>
+  <si>
+    <t>TC - 8</t>
+  </si>
+  <si>
+    <t>TC - 9</t>
+  </si>
+  <si>
+    <t>TC - 10</t>
+  </si>
+  <si>
+    <t>TC - 11</t>
+  </si>
+  <si>
+    <t>TC - 12</t>
+  </si>
+  <si>
+    <t>TC - 13</t>
+  </si>
+  <si>
+    <t>TC - 14</t>
+  </si>
+  <si>
+    <t>TC - 15</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,18 +171,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +577,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"PASA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"NO PASA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:K1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"BAJA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"media"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"alta"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CasosDePrueba/MatrizDePrueba.xlsx
+++ b/CasosDePrueba/MatrizDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/CasosDePrueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C63792B-F025-4850-AE32-8618C0AF6E43}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E70F2CF7-D261-42D3-AA11-D309DCA2D674}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Tester: Fernandez Victoria</t>
   </si>
@@ -121,6 +121,39 @@
   </si>
   <si>
     <t>TC - 15</t>
+  </si>
+  <si>
+    <t>Crear publicación solo texto</t>
+  </si>
+  <si>
+    <t>Crear post solo texto</t>
+  </si>
+  <si>
+    <t>Usuario logueado</t>
+  </si>
+  <si>
+    <t>1.Ingresar al muro o feed principal.
+2.Seleccionar el campo “¿Qué estas pensando?”
+3.Escribir un texto.
+4.Presionar “Publicar”.</t>
+  </si>
+  <si>
+    <t>Feed principal</t>
+  </si>
+  <si>
+    <t>El sistema debe publicar el texto correctamente y mostrarlo en el muro del usuario</t>
+  </si>
+  <si>
+    <t>El sistema publica la publicacion correctamente y lo muestra en el muro del usuario</t>
+  </si>
+  <si>
+    <t>PASA</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>BAJA</t>
   </si>
 </sst>
 </file>
@@ -203,15 +236,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -221,33 +247,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -265,21 +278,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -581,7 +580,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,6 +588,7 @@
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="11" max="11" width="11.140625" customWidth="1"/>
@@ -611,150 +611,397 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:14" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"PASA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"NO PASA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"BAJA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"media"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"alta"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"media"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"BAJA"</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CasosDePrueba/MatrizDePrueba.xlsx
+++ b/CasosDePrueba/MatrizDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/CasosDePrueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E70F2CF7-D261-42D3-AA11-D309DCA2D674}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7637E24-0CAB-4921-B567-E058966AF312}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>Tester: Fernandez Victoria</t>
   </si>
@@ -154,6 +154,21 @@
   </si>
   <si>
     <t>BAJA</t>
+  </si>
+  <si>
+    <t>Crear publicación con imagen</t>
+  </si>
+  <si>
+    <t>Crear post con imagen</t>
+  </si>
+  <si>
+    <t>1.Ingresar al muro o feed principal.
+2.Seleccionar el campo “¿Qué estas pensando?” 3. Adjuntar una o mas imgenes
+4.Escribir un texto (OPCIONAL)
+4.Presionar “Publicar”.</t>
+  </si>
+  <si>
+    <t>El sistema debe publicar la imagen correctamente y mostrarlo en el muro del usuario</t>
   </si>
 </sst>
 </file>
@@ -579,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,25 +713,49 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="F5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">

--- a/CasosDePrueba/MatrizDePrueba.xlsx
+++ b/CasosDePrueba/MatrizDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/CasosDePrueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7637E24-0CAB-4921-B567-E058966AF312}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8DEDD7-1C60-4B0B-93DE-0BBFBECD9716}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>Tester: Fernandez Victoria</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Crear publicación solo texto</t>
-  </si>
-  <si>
-    <t>Crear post solo texto</t>
   </si>
   <si>
     <t>Usuario logueado</t>
@@ -159,9 +156,6 @@
     <t>Crear publicación con imagen</t>
   </si>
   <si>
-    <t>Crear post con imagen</t>
-  </si>
-  <si>
     <t>1.Ingresar al muro o feed principal.
 2.Seleccionar el campo “¿Qué estas pensando?” 3. Adjuntar una o mas imgenes
 4.Escribir un texto (OPCIONAL)
@@ -169,6 +163,31 @@
   </si>
   <si>
     <t>El sistema debe publicar la imagen correctamente y mostrarlo en el muro del usuario</t>
+  </si>
+  <si>
+    <t>Ver publicaciones de amigos en el feed</t>
+  </si>
+  <si>
+    <t>Usuario logueado con amigos agregados</t>
+  </si>
+  <si>
+    <t>1.Ingresar a la app.
+2.Deslizar en el feed.</t>
+  </si>
+  <si>
+    <t>Dado Usuario Logueado Cuando Crea Publicación Solo Texto Entonces Publicación Exitosa</t>
+  </si>
+  <si>
+    <t>Dado Usuario Logueado Cuando Crea Publicación Con Texto e Imagen Entonces Publicación Exitosa</t>
+  </si>
+  <si>
+    <t>Dado Usuario Con Amigos Cuando Accede al Feed Entonces Visualiza Publicaciones Cronológicas</t>
+  </si>
+  <si>
+    <t>El sistema le muestra al usuario publicaciones de sus amigos ordenadas cronológicamente.</t>
+  </si>
+  <si>
+    <t>El usuario puede ver las publicaciones de sus amigos en el feed</t>
   </si>
 </sst>
 </file>
@@ -251,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -269,6 +288,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,7 +621,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,40 +703,40 @@
         <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="M4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
@@ -718,64 +744,88 @@
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="H5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="M5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -785,9 +835,9 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
@@ -805,9 +855,9 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
@@ -825,7 +875,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
@@ -845,7 +895,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="6"/>
@@ -865,7 +915,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="6"/>
@@ -885,7 +935,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="6"/>
@@ -905,7 +955,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="6"/>
@@ -925,7 +975,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -945,7 +995,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -965,7 +1015,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -985,7 +1035,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>
@@ -1005,7 +1055,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="6"/>
@@ -1024,7 +1074,7 @@
       <formula>"PASA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
+  <conditionalFormatting sqref="I5:I6">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"NO PASA"</formula>
     </cfRule>

--- a/CasosDePrueba/MatrizDePrueba.xlsx
+++ b/CasosDePrueba/MatrizDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/CasosDePrueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8DEDD7-1C60-4B0B-93DE-0BBFBECD9716}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D308A8C-D03D-4539-8471-2E57AF67BAC2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
   <si>
     <t>Tester: Fernandez Victoria</t>
   </si>
@@ -188,6 +188,22 @@
   </si>
   <si>
     <t>El usuario puede ver las publicaciones de sus amigos en el feed</t>
+  </si>
+  <si>
+    <t>Ver solicitudes de amistad pendientes</t>
+  </si>
+  <si>
+    <t>Interfaz Amigos</t>
+  </si>
+  <si>
+    <t>Dado Usuario con Solicitudes Pendientes Cuando Accede a Amigos Entonces Visualiza Solicitudes</t>
+  </si>
+  <si>
+    <t>1.Ingresar a la app.
+2.Seleccionar segunda opcion en la interfaz superior 3. Confirmar/Eliminar solicitud</t>
+  </si>
+  <si>
+    <t>El sistema muestra las solicitudes pendientes</t>
   </si>
 </sst>
 </file>
@@ -621,7 +637,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,25 +843,49 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="F7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1074,7 +1114,7 @@
       <formula>"PASA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
+  <conditionalFormatting sqref="I5:I7">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"NO PASA"</formula>
     </cfRule>

--- a/CasosDePrueba/MatrizDePrueba.xlsx
+++ b/CasosDePrueba/MatrizDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/CasosDePrueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D308A8C-D03D-4539-8471-2E57AF67BAC2}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F5AE8DC-4702-4A83-AAE6-CD96355233BB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>Tester: Fernandez Victoria</t>
   </si>
@@ -204,6 +204,25 @@
   </si>
   <si>
     <t>El sistema muestra las solicitudes pendientes</t>
+  </si>
+  <si>
+    <t>Acceder a mensajes</t>
+  </si>
+  <si>
+    <t>Interfaz Mensajes</t>
+  </si>
+  <si>
+    <t>Dado Usuario con Amigos Cuando Accede a Mensajería Entonces Puede Ver y Enviar Mensajes</t>
+  </si>
+  <si>
+    <t>1.Ingresar a la app.
+2.Seleccionar tercera opcion en la interfaz superior 3. Seleccionar chat</t>
+  </si>
+  <si>
+    <t>El sistema permite que el usuario pueda ver y enviar mensajes</t>
+  </si>
+  <si>
+    <t>El usuario puede ver y responder mensajes</t>
   </si>
 </sst>
 </file>
@@ -286,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -309,7 +328,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -636,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +836,7 @@
       <c r="F6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -887,25 +905,49 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="E8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="F8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1114,7 +1156,7 @@
       <formula>"PASA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I7">
+  <conditionalFormatting sqref="I5:I8">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"NO PASA"</formula>
     </cfRule>

--- a/CasosDePrueba/MatrizDePrueba.xlsx
+++ b/CasosDePrueba/MatrizDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/CasosDePrueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F5AE8DC-4702-4A83-AAE6-CD96355233BB}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0F92148-21A8-4867-B284-C8C8425C18F5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
   <si>
     <t>Tester: Fernandez Victoria</t>
   </si>
@@ -223,6 +223,25 @@
   </si>
   <si>
     <t>El usuario puede ver y responder mensajes</t>
+  </si>
+  <si>
+    <t>Visualizar reels</t>
+  </si>
+  <si>
+    <t>Interfaz Reels</t>
+  </si>
+  <si>
+    <t>Dado Usuario Logueado Cuando Accede a Reels Entonces Reproduce Videos Correctamente</t>
+  </si>
+  <si>
+    <t>1.Ingresar a la app.
+2.Seleccionar cuarta opcion en la interfaz superior 3. deslizar hacia arriba para continuar visualizando</t>
+  </si>
+  <si>
+    <t>El sistema carga y reproduce los Reels correctamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario puede visualizar los reels </t>
   </si>
 </sst>
 </file>
@@ -655,7 +674,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,25 +968,49 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="F9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1156,7 +1199,7 @@
       <formula>"PASA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I8">
+  <conditionalFormatting sqref="I5:I9">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"NO PASA"</formula>
     </cfRule>

--- a/CasosDePrueba/MatrizDePrueba.xlsx
+++ b/CasosDePrueba/MatrizDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/CasosDePrueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0F92148-21A8-4867-B284-C8C8425C18F5}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3036D4B-F3B5-42A8-BC7D-5F99606AAE25}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
   <si>
     <t>Tester: Fernandez Victoria</t>
   </si>
@@ -242,6 +242,44 @@
   </si>
   <si>
     <t xml:space="preserve">El usuario puede visualizar los reels </t>
+  </si>
+  <si>
+    <t>Ver notificaciones de la cuenta</t>
+  </si>
+  <si>
+    <t>Acceder al Marketplace</t>
+  </si>
+  <si>
+    <t>Interfaz Notificaciones</t>
+  </si>
+  <si>
+    <t>Interfaz Marketplace</t>
+  </si>
+  <si>
+    <t>1.Ingresar a la app.
+2.Seleccionar quinta opcion en la interfaz superior 3. Visualizar lista de interacciones</t>
+  </si>
+  <si>
+    <t>El sistema muestra las notificaciones de mas reciente a mas antigua</t>
+  </si>
+  <si>
+    <t>El usuario visualiza correctamente las notificaciones</t>
+  </si>
+  <si>
+    <t>Dado Usuario con Actividad Reciente Cuando Accede a Notificaciones Entonces Visualiza Interacciones Actualizadas</t>
+  </si>
+  <si>
+    <t>Dado Usuario con Acceso a Marketplace Cuando Ingresa Sección Entonces Visualiza Productos Disponibles</t>
+  </si>
+  <si>
+    <t>1.Ingresar a la app.
+2.Seleccionar sexta opcion en la interfaz superior 3. Visualizar lista productos</t>
+  </si>
+  <si>
+    <t>El sistema muestra productos disponibles cercanos al usuario</t>
+  </si>
+  <si>
+    <t>El usuario visualiza los productos en venta cercanos a su ubicación</t>
   </si>
 </sst>
 </file>
@@ -284,7 +322,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -320,11 +358,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -348,6 +397,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,7 +726,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,45 +1064,93 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="102" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="102" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="F11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1062,7 +1162,6 @@
       <c r="E12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="4"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
@@ -1199,7 +1298,7 @@
       <formula>"PASA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I9">
+  <conditionalFormatting sqref="I5:I11">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"NO PASA"</formula>
     </cfRule>

--- a/CasosDePrueba/MatrizDePrueba.xlsx
+++ b/CasosDePrueba/MatrizDePrueba.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/CasosDePrueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3036D4B-F3B5-42A8-BC7D-5F99606AAE25}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07CE1462-635C-4C96-958E-4A65B4BC72EF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MatrizDePrueba" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="105">
   <si>
     <t>Tester: Fernandez Victoria</t>
   </si>
@@ -280,6 +280,85 @@
   </si>
   <si>
     <t>El usuario visualiza los productos en venta cercanos a su ubicación</t>
+  </si>
+  <si>
+    <t>Publicar texto vacío</t>
+  </si>
+  <si>
+    <t>Dado Usuario Logueado Cuando Intenta Publicar Texto Vacío Entonces Muestra Error y Bloquea Acción</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar un mensaje de error e impedir la publicación vacía.</t>
+  </si>
+  <si>
+    <t>El sistema no permite subir una publicacion vacia, mensaje emergente "Agrega contenido y vuelve a intentarlo"</t>
+  </si>
+  <si>
+    <t>Subir imagen de formato no compatible</t>
+  </si>
+  <si>
+    <t>Dado Usuario Logueado Cuando Adjunta Imagen Formato No Compatible Entonces Muestra Mensaje de Error</t>
+  </si>
+  <si>
+    <t>El sistema debe rechazar la imagen y mostrar mensaje de formato no soportado.</t>
+  </si>
+  <si>
+    <t>1.Ingresar al muro o feed principal.
+2.Seleccionar el campo “¿Qué estas pensando?”
+3.Presionar “Publicar”.</t>
+  </si>
+  <si>
+    <t>1.Ingresar al muro o feed principal.
+2.Seleccionar el campo “¿Qué estas pensando?” 3.Seleccionar imagen con formato no soportado
+4.Presionar “Publicar”.</t>
+  </si>
+  <si>
+    <t>El sistema no permite seleccionar los archivos incompatibles y solo permite elegir fotos o videos desde la galería</t>
+  </si>
+  <si>
+    <t>Publicar texto largo</t>
+  </si>
+  <si>
+    <t>Dado Usuario Logueado Cuando Publica Texto Superior al Límite Entonces Sistema no Permite Publicar</t>
+  </si>
+  <si>
+    <t>1.Ingresar al muro o feed principal.
+2.Seleccionar el campo “¿Qué estas pensando?” 3. Escribir un texto extenso
+4.Presionar “Publicar”.</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar mensaje de límite alcanzado</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>Aunque el sistema permite la publicación correctamente, sería recomendable establecer un límite de caracteres o advertencia para mantener la ligereza de la versión Lite.</t>
+  </si>
+  <si>
+    <t>Evidencia: ProyectoFinalQA\Evidencia</t>
+  </si>
+  <si>
+    <t>Pestaña "TC - 11"</t>
+  </si>
+  <si>
+    <t>Recargar feed y verificar actualización</t>
+  </si>
+  <si>
+    <t>Dado Usuario Logueado Cuando Actualiza Feed Entonces Visualiza Contenido Actualizado</t>
+  </si>
+  <si>
+    <t>1.Ingresar al muro o feed principal.
+2.Deslizar hacia arriba para actualizar</t>
+  </si>
+  <si>
+    <t>El sistema permite publicar textos &gt;1000 caracteres sin mostrar restriccion</t>
+  </si>
+  <si>
+    <t>El feed se actualiza correctamente mostrando las publicaciones recientes</t>
+  </si>
+  <si>
+    <t>El feed debe mostrar las nuevas publicaciones.</t>
   </si>
 </sst>
 </file>
@@ -322,7 +401,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -359,13 +438,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -373,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -399,8 +489,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,35 +836,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -800,14 +921,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -819,10 +940,10 @@
       <c r="F4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="13" t="s">
         <v>37</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -844,14 +965,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -863,10 +984,10 @@
       <c r="F5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="13" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -888,14 +1009,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -907,10 +1028,10 @@
       <c r="F6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="13" t="s">
         <v>51</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -932,14 +1053,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -951,10 +1072,10 @@
       <c r="F7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -976,14 +1097,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -995,10 +1116,10 @@
       <c r="F8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="13" t="s">
         <v>62</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -1020,14 +1141,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="13" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1039,10 +1160,10 @@
       <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="13" t="s">
         <v>68</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -1064,14 +1185,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="102" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1083,10 +1204,10 @@
       <c r="F10" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="13" t="s">
         <v>75</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -1108,14 +1229,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="102" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1127,10 +1248,10 @@
       <c r="F11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -1152,84 +1273,181 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="E12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="E14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="F15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1243,7 +1461,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1263,7 +1481,7 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1283,7 +1501,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1292,13 +1510,18 @@
       <c r="N18" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"PASA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I11">
+  <conditionalFormatting sqref="I5:I15">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"NO PASA"</formula>
     </cfRule>

--- a/CasosDePrueba/MatrizDePrueba.xlsx
+++ b/CasosDePrueba/MatrizDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/CasosDePrueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07CE1462-635C-4C96-958E-4A65B4BC72EF}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D112010-0750-441F-8097-AFC32CA0D973}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="114">
   <si>
     <t>Tester: Fernandez Victoria</t>
   </si>
   <si>
     <t>Nombre del proyecto: TP Final</t>
-  </si>
-  <si>
-    <t>Ambiente: Moto E40 (Android)</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,9 +336,6 @@
     <t>Evidencia: ProyectoFinalQA\Evidencia</t>
   </si>
   <si>
-    <t>Pestaña "TC - 11"</t>
-  </si>
-  <si>
     <t>Recargar feed y verificar actualización</t>
   </si>
   <si>
@@ -359,6 +353,41 @@
   </si>
   <si>
     <t>El feed debe mostrar las nuevas publicaciones.</t>
+  </si>
+  <si>
+    <t>Ambiente: Moto E40 (Android 11)</t>
+  </si>
+  <si>
+    <t>Cambiar foto de perfil</t>
+  </si>
+  <si>
+    <t>Muro</t>
+  </si>
+  <si>
+    <t>Dado Usuario Logueado Cuando Cambia Foto de Perfil Entonces Sistema Actualiza Imagen correctamente</t>
+  </si>
+  <si>
+    <t>1.Ingresar al perfil del usuario.
+2.Seleccionar imagen de perfil y click en  “Subir foto”
+3.Elegir la opción “Seleccionar desde álbum”.4.Acceder a los álbumes. 5.Seleccionar una imagen y confirmar el cambio.</t>
+  </si>
+  <si>
+    <t>El sistema accede a los todos los álbumes del dispositivo y permite seleccionar una imagen. Actualiza la foto de perfil correctamente</t>
+  </si>
+  <si>
+    <t>El sistema no accede a los álbumes de la tarjeta externa.</t>
+  </si>
+  <si>
+    <t>\ProyectoFinalQA\Evidencia--&gt; Pestaña "Evidencias"</t>
+  </si>
+  <si>
+    <t>Defecto</t>
+  </si>
+  <si>
+    <t>Falla</t>
+  </si>
+  <si>
+    <t>El acceso al almacenamiento interno funciona correctamente; el error ocurre solo con la tarjeta externa.</t>
   </si>
 </sst>
 </file>
@@ -463,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -483,21 +512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -512,6 +526,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,8 +863,8 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,631 +883,655 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="E6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="J6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="B7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="B9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="13" t="s">
+      <c r="H12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>84</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="H13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="B15" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1491,17 +1541,17 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1521,7 +1571,7 @@
       <formula>"PASA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I15">
+  <conditionalFormatting sqref="I5:I16">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"NO PASA"</formula>
     </cfRule>

--- a/CasosDePrueba/MatrizDePrueba.xlsx
+++ b/CasosDePrueba/MatrizDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/CasosDePrueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D112010-0750-441F-8097-AFC32CA0D973}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0318472-C815-4D8E-A427-A996F03F8981}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
   <si>
     <t>Tester: Fernandez Victoria</t>
   </si>
@@ -388,6 +388,32 @@
   </si>
   <si>
     <t>El acceso al almacenamiento interno funciona correctamente; el error ocurre solo con la tarjeta externa.</t>
+  </si>
+  <si>
+    <t>Verificar vista previa de informacion en chats</t>
+  </si>
+  <si>
+    <t>Chats</t>
+  </si>
+  <si>
+    <t>Usuario logueado con mensajes tipo post, link de marketplace o respuesta a historia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Acceder a la sección “Mensajes”.
+2.Ingresar a una conversación activa</t>
+  </si>
+  <si>
+    <t>El sistema genera correctamente una vista previa del enlace (imagen + texto descriptivo)</t>
+  </si>
+  <si>
+    <t>El sistema no genera vista previa, ni muestra aviso de que el contenido no puede visualizarse desde la app.</t>
+  </si>
+  <si>
+    <t>NO PASA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -492,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -527,23 +553,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -863,8 +893,8 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,22 +913,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" t="s">
         <v>96</v>
       </c>
@@ -1441,7 +1471,7 @@
       <c r="C15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>98</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1485,13 +1515,13 @@
       <c r="C16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="7" t="s">
         <v>106</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="12" t="s">
         <v>107</v>
       </c>
       <c r="G16" s="9" t="s">
@@ -1515,29 +1545,51 @@
       <c r="M16" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1556,7 +1608,9 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="N18" s="4"/>
     </row>
   </sheetData>
@@ -1567,24 +1621,29 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"PASA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I16">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"NO PASA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"alta"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"media"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"BAJA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="NO PASA">
+      <formula>NOT(ISERROR(SEARCH("NO PASA",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CasosDePrueba/MatrizDePrueba.xlsx
+++ b/CasosDePrueba/MatrizDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/CasosDePrueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0318472-C815-4D8E-A427-A996F03F8981}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{631085C9-AFAA-4DBC-8E33-DEED23AF98FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="123">
   <si>
     <t>Tester: Fernandez Victoria</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dado Usuario con Conversación Cuando Envía Enlace Valido Entonces Sistema Genera Vista Previa </t>
   </si>
 </sst>
 </file>
@@ -570,13 +573,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -592,6 +588,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -894,7 +897,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1552,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -1559,7 +1562,9 @@
       <c r="C17" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="E17" s="5" t="s">
         <v>116</v>
       </c>
@@ -1630,20 +1635,20 @@
       <formula>"NO PASA"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NO PASA">
+      <formula>NOT(ISERROR(SEARCH("NO PASA",I17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"alta"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"media"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"BAJA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="NO PASA">
-      <formula>NOT(ISERROR(SEARCH("NO PASA",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CasosDePrueba/MatrizDePrueba.xlsx
+++ b/CasosDePrueba/MatrizDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/CasosDePrueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{631085C9-AFAA-4DBC-8E33-DEED23AF98FE}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1473E4AF-0313-4521-9DE6-0736C799E22D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="128">
   <si>
     <t>Tester: Fernandez Victoria</t>
   </si>
@@ -413,10 +413,25 @@
     <t>NO PASA</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Dado Usuario con Conversación Cuando Envía Enlace Valido Entonces Sistema Genera Vista Previa </t>
+  </si>
+  <si>
+    <t>Usuario con amigos con historias subidas</t>
+  </si>
+  <si>
+    <t>Dado Usuario Logueado Cuando Visualiza Historias de Amigos Entonces Distema Muestra Contenido Correctamente</t>
+  </si>
+  <si>
+    <t>Visualizar historias de amigos</t>
+  </si>
+  <si>
+    <t>1.Ingresar al muro o feed principal. 2.Seleccionar la sección “Historias”. 3.Deslizar entre las historias publicadas por los amigos.</t>
+  </si>
+  <si>
+    <t>El sistema muestra las historias de los amigos correctamente</t>
+  </si>
+  <si>
+    <t>Las historias se visualizan correctamente y sin interrupciones.</t>
   </si>
 </sst>
 </file>
@@ -521,13 +536,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -539,37 +551,38 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -897,42 +910,44 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="15.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="8" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="11.140625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>96</v>
       </c>
     </row>
@@ -940,7 +955,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -976,467 +991,467 @@
       <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="J4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="J5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="J6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="4" t="s">
+      <c r="J7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="4" t="s">
+      <c r="J8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="4" t="s">
+      <c r="J9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="4" t="s">
+      <c r="J10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="4" t="s">
+      <c r="J11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" s="4" t="s">
+      <c r="J12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" s="4" t="s">
+      <c r="J13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -1445,178 +1460,200 @@
       <c r="H14" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" s="4" t="s">
+      <c r="J15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="225" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N18" s="4"/>
+      <c r="F18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1626,29 +1663,34 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"PASA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I16">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"NO PASA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NO PASA">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="NO PASA">
       <formula>NOT(ISERROR(SEARCH("NO PASA",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"alta"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"media"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"BAJA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"NO PASA"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CasosDePrueba/MatrizDePrueba.xlsx
+++ b/CasosDePrueba/MatrizDePrueba.xlsx
@@ -560,29 +560,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -594,6 +587,13 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -910,44 +910,44 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="15.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="8" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="8"/>
-    <col min="11" max="11" width="11.140625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="15.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="7" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="7"/>
+    <col min="11" max="11" width="11.140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1102,7 +1102,7 @@
       <c r="F6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -1175,13 +1175,13 @@
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1269,7 +1269,7 @@
       <c r="C10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1351,7 +1351,7 @@
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1454,10 +1454,10 @@
       <c r="F14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="8" t="s">
         <v>100</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -1483,7 +1483,7 @@
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1542,7 +1542,7 @@
       <c r="F16" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="8" t="s">
         <v>108</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -1633,7 +1633,7 @@
       <c r="G18" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="8" t="s">
         <v>127</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -1677,20 +1677,20 @@
       <formula>NOT(ISERROR(SEARCH("NO PASA",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"NO PASA"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"alta"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"media"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"BAJA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"NO PASA"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
